--- a/xlsx/外交_intext.xlsx
+++ b/xlsx/外交_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
   <si>
     <t>外交</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>外交 (消歧義)</t>
+    <t>外交 (消歧义)</t>
   </si>
   <si>
     <t>政策_政策_政治_外交</t>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>國際關係</t>
+    <t>国际关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E8%8A%82</t>
@@ -83,25 +83,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>貿易</t>
+    <t>贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
+    <t>战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>條約</t>
+    <t>条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E5%AE%98</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E4%BB%A3%E8%A1%A8%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>外交代表機構</t>
+    <t>外交代表机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BD%BF</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BD%BF%E9%A4%A8</t>
   </si>
   <si>
-    <t>大使館</t>
+    <t>大使馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E5%AE%98%E9%8A%9C</t>
   </si>
   <si>
-    <t>外交官銜</t>
+    <t>外交官衔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%81_(%E5%8D%97%E6%9C%9D)</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A1%8C</t>
   </si>
   <si>
-    <t>白題</t>
+    <t>白题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%A7%E8%87%B3</t>
   </si>
   <si>
-    <t>鄧至</t>
+    <t>邓至</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%BC%E7%89%99%E4%BF%AE</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>城市國家</t>
+    <t>城市国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E5%9B%BD%E6%97%B6%E4%BB%A3</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E7%B8%B1</t>
   </si>
   <si>
-    <t>合縱</t>
+    <t>合纵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9E%E6%A8%AA</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%98%AD</t>
   </si>
   <si>
-    <t>米蘭</t>
+    <t>米兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E4%B9%A6</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%81%96%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B%E7%9A%87%E5%B8%9D</t>
   </si>
   <si>
-    <t>神聖羅馬帝國皇帝</t>
+    <t>神圣罗马帝国皇帝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
+    <t>贵族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E4%BD%BF</t>
@@ -335,37 +335,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>王國</t>
+    <t>王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>公國</t>
+    <t>公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>共和國</t>
+    <t>共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%93%E8%AB%9C</t>
   </si>
   <si>
-    <t>間諜</t>
+    <t>间谍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E5%A0%B1%E5%93%A1</t>
   </si>
   <si>
-    <t>情報員</t>
+    <t>情报员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E9%83%A8%E9%95%BF</t>
@@ -377,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄國</t>
+    <t>俄国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法國大革命</t>
+    <t>法国大革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E5%B4%99</t>
@@ -395,19 +395,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E8%B2%A2%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>朝貢體系</t>
+    <t>朝贡体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧斯曼帝國</t>
+    <t>奥斯曼帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81%E5%A0%A1</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%B4%A8</t>
@@ -431,19 +431,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%A7%8B%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>春秋時期</t>
+    <t>春秋时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%8B_(%E4%B8%AD%E5%9C%8B)</t>
   </si>
   <si>
-    <t>戰國 (中國)</t>
+    <t>战国 (中国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BA%BA%E8%B4%A8%E5%8D%B1%E6%9C%BA</t>
@@ -461,19 +461,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E8%B1%81%E5%85%8D%E6%AC%8A</t>
   </si>
   <si>
-    <t>外交豁免權</t>
+    <t>外交豁免权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D%E5%A4%96%E4%BA%A4%E9%97%9C%E4%BF%82%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>維也納外交關係公約</t>
+    <t>维也纳外交关系公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E9%82%AE%E8%A2%8B</t>
@@ -491,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E9%96%93%E8%AB%9C</t>
   </si>
   <si>
-    <t>反間諜</t>
+    <t>反间谍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%93%E8%AB%9C%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>間諜衛星</t>
+    <t>间谍卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -509,49 +509,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%9C%8B%E5%85%B1%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次國共內戰</t>
+    <t>第二次国共内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%A8%E5%8F%B0%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國在台協會</t>
+    <t>美国在台协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%9C%98%E6%B3%95%E4%BA%BA%E6%97%A5%E6%9C%AC%E5%8F%B0%E7%81%A3%E4%BA%A4%E6%B5%81%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>財團法人日本台灣交流協會</t>
+    <t>财团法人日本台湾交流协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%9C%A8%E5%8F%B0%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>德國在台協會</t>
+    <t>德国在台协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97%E7%B6%93%E6%BF%9F%E6%96%87%E5%8C%96%E4%BB%A3%E8%A1%A8%E8%99%95</t>
   </si>
   <si>
-    <t>臺北經濟文化代表處</t>
+    <t>台北经济文化代表处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E5%85%B9%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%B6%85%E6%96%AF%E7%89%B9%E6%B2%B3%E6%9D%B1%E5%B2%B8%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>德涅斯特河東岸共和國</t>
+    <t>德涅斯特河东岸共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -575,13 +575,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%88%88%E7%88%BE%E8%AB%BE-%E5%8D%A1%E6%8B%89%E5%B7%B4%E8%B5%AB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>納戈爾諾-卡拉巴赫共和國</t>
+    <t>纳戈尔诺-卡拉巴赫共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>北賽普勒斯土耳其共和國</t>
+    <t>北赛普勒斯土耳其共和国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Track_II_diplomacy</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>氣候變遷</t>
+    <t>气候变迁</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/water_security</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>世界經濟</t>
+    <t>世界经济</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Preventive_diplomacy</t>
@@ -653,13 +653,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E5%AF%A6%E5%8A%9B</t>
   </si>
   <si>
-    <t>軟實力</t>
+    <t>软实力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E5%A5%88%E7%88%BE</t>
   </si>
   <si>
-    <t>約瑟夫·奈爾</t>
+    <t>约瑟夫·奈尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dollar_diplomacy</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>納粹德國</t>
+    <t>纳粹德国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nuclear_diplomacy</t>
@@ -707,19 +707,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%AD%A6%E5%99%A8%E6%93%B4%E6%95%A3</t>
   </si>
   <si>
-    <t>核武器擴散</t>
+    <t>核武器扩散</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>核戰爭</t>
+    <t>核战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E4%BA%92%E4%BF%9D%E8%AD%89%E6%AF%80%E6%BB%85</t>
   </si>
   <si>
-    <t>相互保證毀滅</t>
+    <t>相互保证毁灭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -737,13 +737,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B0%91%E6%9B%B8%E5%B1%80</t>
   </si>
   <si>
-    <t>三民書局</t>
+    <t>三民书局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%B8%E6%93%9A</t>
   </si>
   <si>
-    <t>維基數據</t>
+    <t>维基数据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E6%94%BF%E7%AD%96</t>
@@ -755,19 +755,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B3%95</t>
   </si>
   <si>
-    <t>国际法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%85%B3%E7%B3%BB</t>
   </si>
   <si>
-    <t>国际关系</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%82%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>多邊主義</t>
+    <t>多边主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%BB%B7%E5%A4%A7%E4%BD%BF</t>
@@ -791,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -809,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4805,7 +4799,7 @@
         <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>116</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4831,10 +4825,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -4860,10 +4854,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4889,10 +4883,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4918,10 +4912,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4947,10 +4941,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4976,10 +4970,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -5005,10 +4999,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5034,10 +5028,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5063,10 +5057,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>

--- a/xlsx/外交_intext.xlsx
+++ b/xlsx/外交_intext.xlsx
@@ -29,7 +29,7 @@
     <t>外交 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_政治_外交</t>
+    <t>体育运动_体育运动_欧洲议会_外交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
